--- a/sensitivity_diabetes_diag1_all_param_search_results_gridcv.xlsx
+++ b/sensitivity_diabetes_diag1_all_param_search_results_gridcv.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,30 +489,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>n_iter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>penalty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>colsample_bytree</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subsample</t>
         </is>
@@ -556,6 +566,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,21 +594,27 @@
         <v>0.2535714285714286</v>
       </c>
       <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.1</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -629,13 +647,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -650,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,30 +726,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>n_iter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>penalty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>colsample_bytree</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subsample</t>
         </is>
@@ -773,6 +803,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -799,21 +831,27 @@
         <v>0.2724550898203593</v>
       </c>
       <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.1</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -846,13 +884,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -867,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,25 +1023,30 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>param_max_iter</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>param_penalty</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>param_solver</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>param_colsample_bytree</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>param_learning_rate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>param_subsample</t>
         </is>
@@ -1009,16 +1054,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8736731052398682</v>
+        <v>0.7247355937957763</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01557633963404943</v>
+        <v>0.02130789898403939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02803559303283691</v>
+        <v>0.02958097457885742</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006628441809192922</v>
+        <v>0.00300666239512217</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -1078,19 +1123,20 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.967785739898682</v>
+        <v>3.536042547225952</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05582935110394332</v>
+        <v>0.03186242103021614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1324841022491455</v>
+        <v>0.1269169807434082</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01218140491398839</v>
+        <v>0.009488771754844522</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -1150,19 +1196,20 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.777216911315918</v>
+        <v>0.6722756385803222</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04656839981366743</v>
+        <v>0.02859001538544387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02626175880432129</v>
+        <v>0.02376880645751953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006583516473704956</v>
+        <v>0.004333264528240258</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -1222,19 +1269,20 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.512461471557617</v>
+        <v>3.514535999298096</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03396047276034267</v>
+        <v>0.1800064028387761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1240967750549316</v>
+        <v>0.1073574066162109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01177547108485276</v>
+        <v>0.005611158944104414</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -1294,19 +1342,20 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6830718517303467</v>
+        <v>0.6558074474334716</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03439761300029095</v>
+        <v>0.01066763306947289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02886457443237305</v>
+        <v>0.02231655120849609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009511583327772605</v>
+        <v>0.005032991517212863</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -1366,19 +1415,20 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.346536540985107</v>
+        <v>3.442618465423584</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08061671508461653</v>
+        <v>0.08227603069627927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1261307716369629</v>
+        <v>0.09661169052124023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04671380438055471</v>
+        <v>0.006944183464732856</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -1438,19 +1488,20 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6820030212402344</v>
+        <v>0.6827466011047363</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0236331710018242</v>
+        <v>0.07985845224734135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02498283386230469</v>
+        <v>0.02439994812011719</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003155603211803573</v>
+        <v>0.003596840935363976</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -1510,19 +1561,20 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.597418165206909</v>
+        <v>3.10325083732605</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08443308955254224</v>
+        <v>0.06008001683178305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1086194515228271</v>
+        <v>0.09863271713256835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01092495024603225</v>
+        <v>0.01112068411769212</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -1582,19 +1634,20 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6523699283599853</v>
+        <v>0.5537803173065186</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05707647354899786</v>
+        <v>0.02426242987542893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01892495155334473</v>
+        <v>0.02041730880737305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003766901065861216</v>
+        <v>0.004875425105979925</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1656,19 +1709,20 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.06733226776123</v>
+        <v>2.878949880599976</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06488381079948159</v>
+        <v>0.05015856392378001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09270224571228028</v>
+        <v>0.08882694244384766</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01073887299220531</v>
+        <v>0.01129861087109684</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1730,19 +1784,20 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5787886142730713</v>
+        <v>0.5527233600616455</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04113275618104349</v>
+        <v>0.02695627058199333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01877398490905762</v>
+        <v>0.02034835815429687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002518065538052778</v>
+        <v>0.001794489250497873</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1804,19 +1859,20 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.219441366195679</v>
+        <v>2.880126953125</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08001038937164348</v>
+        <v>0.04174831807960989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09022207260131836</v>
+        <v>0.08749942779541016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009466094110246718</v>
+        <v>0.004616697291921499</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1878,19 +1934,20 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.6261523246765137</v>
+        <v>0.5500938415527343</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007063126373089172</v>
+        <v>0.02096898159332842</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02342958450317383</v>
+        <v>0.01778855323791504</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005466268187711133</v>
+        <v>0.002525455596501429</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1952,19 +2009,20 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.049025821685791</v>
+        <v>2.758332109451294</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07136275872091329</v>
+        <v>0.04487049194325163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.093864107131958</v>
+        <v>0.08584227561950683</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006453911905541126</v>
+        <v>0.00590463159912603</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -2026,19 +2084,20 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6172127723693848</v>
+        <v>0.5581468582153321</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03862617937813779</v>
+        <v>0.03056029070065078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02580327987670899</v>
+        <v>0.01781511306762695</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006445207578955282</v>
+        <v>0.0008618209613287598</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -2100,19 +2159,20 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.98685941696167</v>
+        <v>2.764945840835571</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08669455893129654</v>
+        <v>0.121309813718246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09263978004455567</v>
+        <v>0.09595017433166504</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005501212148432665</v>
+        <v>0.009617378515932898</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -2174,19 +2234,20 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7782764434814453</v>
+        <v>0.690058708190918</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0193810092703003</v>
+        <v>0.02344910534910228</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02511534690856933</v>
+        <v>0.02437272071838379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001367697388845653</v>
+        <v>0.004362701462778068</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -2248,19 +2309,20 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.663683414459229</v>
+        <v>3.404409790039062</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09233210741827172</v>
+        <v>0.05780650213805041</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1372871398925781</v>
+        <v>0.1123000144958496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01026676960946684</v>
+        <v>0.008387320888748646</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -2322,19 +2384,20 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7173614501953125</v>
+        <v>0.6621937274932861</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02922739008813571</v>
+        <v>0.01655056592156377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02686419486999512</v>
+        <v>0.0236001968383789</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004194316088963213</v>
+        <v>0.004767670018561357</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -2396,19 +2459,20 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.645283460617065</v>
+        <v>3.327493476867676</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1234881462341326</v>
+        <v>0.03868607314144189</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1226249217987061</v>
+        <v>0.1050528526306152</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01105131405547278</v>
+        <v>0.004567871507633517</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -2470,19 +2534,20 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6671296119689941</v>
+        <v>0.6338687419891358</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0227187410495316</v>
+        <v>0.04691472412692158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02312555313110352</v>
+        <v>0.01982583999633789</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001358746830507849</v>
+        <v>0.003575538744990358</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -2544,19 +2609,20 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.544795656204224</v>
+        <v>3.12177529335022</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0206191245148269</v>
+        <v>0.07017046403427901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1062685966491699</v>
+        <v>0.1018707752227783</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008249812590672603</v>
+        <v>0.005896289082094837</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -2618,19 +2684,20 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7222396850585937</v>
+        <v>0.6211506843566894</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03242738933447178</v>
+        <v>0.03138804640440605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02810454368591309</v>
+        <v>0.01808714866638184</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001488248356418261</v>
+        <v>0.002801552680019029</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -2692,19 +2759,20 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.762128257751465</v>
+        <v>2.506643867492676</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09535204599602576</v>
+        <v>0.1428862253297427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0738978385925293</v>
+        <v>0.07149043083190917</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007264180032727673</v>
+        <v>0.006621564303007344</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -2766,19 +2834,20 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.00772852897644043</v>
+        <v>0.007984066009521484</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004934336487490362</v>
+        <v>0.000890132201402069</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00178227424621582</v>
+        <v>0.001621198654174805</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001263584820281362</v>
+        <v>0.0001202332767763545</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -2786,7 +2855,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2829,32 +2898,35 @@
       <c r="U26" t="n">
         <v>0.1</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0344667911529541</v>
+        <v>0.03357114791870117</v>
       </c>
       <c r="B27" t="n">
-        <v>0.008923299847496412</v>
+        <v>0.007553377236130774</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002401351928710938</v>
+        <v>0.002239084243774414</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0009667550056874154</v>
+        <v>0.0007144058677970521</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2862,7 +2934,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -2905,32 +2977,35 @@
       <c r="U27" t="n">
         <v>0.1</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01148076057434082</v>
+        <v>0.01110939979553223</v>
       </c>
       <c r="B28" t="n">
-        <v>0.003230860065249107</v>
+        <v>0.002398977853059553</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002211093902587891</v>
+        <v>0.001649379730224609</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0006453677822644567</v>
+        <v>0.0002152251407044383</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2938,7 +3013,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2981,32 +3056,35 @@
       <c r="U28" t="n">
         <v>0.1</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1066422462463379</v>
+        <v>0.09197392463684081</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03722135417878693</v>
+        <v>0.03087950895238815</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003904485702514649</v>
+        <v>0.002930402755737305</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00199347191355914</v>
+        <v>0.001971251340540616</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -3014,7 +3092,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -3057,32 +3135,35 @@
       <c r="U29" t="n">
         <v>0.1</v>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.00987696647644043</v>
+        <v>0.01135711669921875</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002802134511582813</v>
+        <v>0.002457229665249899</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003570413589477539</v>
+        <v>0.002857732772827149</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002128403379504306</v>
+        <v>0.00115170706351245</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -3090,7 +3171,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -3133,32 +3214,35 @@
       <c r="U30" t="n">
         <v>1</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.130674409866333</v>
+        <v>0.1177402019500732</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06700248195878193</v>
+        <v>0.04968934273119218</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002704238891601562</v>
+        <v>0.002596092224121094</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0009603835330186266</v>
+        <v>0.001623771933000626</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -3166,7 +3250,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -3209,32 +3293,35 @@
       <c r="U31" t="n">
         <v>1</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.01540145874023438</v>
+        <v>0.01140336990356445</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005119639013785774</v>
+        <v>0.003172845002591809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002853918075561524</v>
+        <v>0.002506399154663086</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001648864609134339</v>
+        <v>0.001229802861702037</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -3242,7 +3329,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -3285,32 +3372,35 @@
       <c r="U32" t="n">
         <v>1</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1276875972747803</v>
+        <v>0.2380910396575928</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05140370013978374</v>
+        <v>0.1118602140386205</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002206230163574219</v>
+        <v>0.003547763824462891</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001020189178514533</v>
+        <v>0.002009695372575334</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -3318,17 +3408,17 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.6934805717576709</v>
+        <v>0.6934836351828252</v>
       </c>
       <c r="K33" t="n">
         <v>0.7089053700909125</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6861925969548628</v>
+        <v>0.6861910633442526</v>
       </c>
       <c r="M33" t="n">
         <v>0.6984492129510349</v>
@@ -3337,10 +3427,10 @@
         <v>0.7049931294244666</v>
       </c>
       <c r="O33" t="n">
-        <v>0.6984041762357895</v>
+        <v>0.6984044821986984</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008087718521344309</v>
+        <v>0.008087808789758021</v>
       </c>
       <c r="Q33" t="n">
         <v>9</v>
@@ -3361,32 +3451,35 @@
       <c r="U33" t="n">
         <v>1</v>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01098518371582031</v>
+        <v>0.01136817932128906</v>
       </c>
       <c r="B34" t="n">
-        <v>0.003601064007020267</v>
+        <v>0.00288002725622322</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002026796340942383</v>
+        <v>0.003254508972167969</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004460425617597181</v>
+        <v>0.001266390895401679</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -3394,7 +3487,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -3437,32 +3530,35 @@
       <c r="U34" t="n">
         <v>10</v>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="V34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1156157493591309</v>
+        <v>0.2945302486419678</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05096292247388696</v>
+        <v>0.150302339681065</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002229070663452148</v>
+        <v>0.002129554748535156</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0006290427513591348</v>
+        <v>0.001125118883309</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -3470,14 +3566,14 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.6934928254582884</v>
+        <v>0.6934897620331339</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7089207061970139</v>
+        <v>0.7089191725864037</v>
       </c>
       <c r="L35" t="n">
         <v>0.6861818616805918</v>
@@ -3486,13 +3582,13 @@
         <v>0.6984568810040855</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7049931294244667</v>
+        <v>0.7049915958138565</v>
       </c>
       <c r="O35" t="n">
-        <v>0.6984090807528892</v>
+        <v>0.6984078546236143</v>
       </c>
       <c r="P35" t="n">
-        <v>0.008093462838796854</v>
+        <v>0.008093187198283584</v>
       </c>
       <c r="Q35" t="n">
         <v>7</v>
@@ -3513,32 +3609,35 @@
       <c r="U35" t="n">
         <v>10</v>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="V35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01302380561828613</v>
+        <v>0.01438803672790527</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003093153985506618</v>
+        <v>0.006045645599190391</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00406651496887207</v>
+        <v>0.001916742324829101</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002710411857282958</v>
+        <v>0.0004866536495295522</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -3546,7 +3645,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -3589,32 +3688,35 @@
       <c r="U36" t="n">
         <v>10</v>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="V36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.09546928405761719</v>
+        <v>0.3241066455841065</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03416435292171075</v>
+        <v>0.1528565716759339</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001842355728149414</v>
+        <v>0.001621103286743164</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0004614908405339017</v>
+        <v>9.826601569522336e-05</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -3622,14 +3724,14 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.6934621912067443</v>
+        <v>0.6934652546318989</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7089207061970138</v>
+        <v>0.7089191725864036</v>
       </c>
       <c r="L37" t="n">
         <v>0.686184928901812</v>
@@ -3638,13 +3740,13 @@
         <v>0.6984461457298147</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7049946630350767</v>
+        <v>0.7049977302562971</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6984017270140923</v>
+        <v>0.6984026464212452</v>
       </c>
       <c r="P37" t="n">
-        <v>0.008096503832619638</v>
+        <v>0.008096231279179685</v>
       </c>
       <c r="Q37" t="n">
         <v>12</v>
@@ -3665,32 +3767,35 @@
       <c r="U37" t="n">
         <v>10</v>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="V37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1675048351287842</v>
+        <v>0.1381726741790771</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04231369357071278</v>
+        <v>0.01203198338558004</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005940818786621093</v>
+        <v>0.009882402420043946</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002710646539955687</v>
+        <v>0.006561720026192852</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -3745,28 +3850,29 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.126091194152832</v>
+        <v>0.09648685455322266</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03866444866949672</v>
+        <v>0.02447788006206292</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004753351211547852</v>
+        <v>0.006892204284667969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0006772382874249931</v>
+        <v>0.003947377784867089</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
@@ -3821,28 +3927,29 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3079347610473633</v>
+        <v>0.3156152248382568</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03485554432251444</v>
+        <v>0.04199088561523438</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01033859252929687</v>
+        <v>0.01037354469299316</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002569239200301112</v>
+        <v>0.002699576789644468</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -3897,28 +4004,29 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2632642745971679</v>
+        <v>0.2235346794128418</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01066042905405267</v>
+        <v>0.01750230926539129</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01010499000549316</v>
+        <v>0.008096122741699218</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002092183398057826</v>
+        <v>0.001299583267117644</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -3973,28 +4081,29 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2047773361206055</v>
+        <v>0.1769844532012939</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01000801303209328</v>
+        <v>0.006030997700917073</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009875726699829102</v>
+        <v>0.008154010772705078</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002600779649097854</v>
+        <v>0.001455122889487315</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -4049,28 +4158,29 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2032029151916504</v>
+        <v>0.1791903018951416</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01948377470875011</v>
+        <v>0.01510856138004437</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01134662628173828</v>
+        <v>0.007455921173095703</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003623891347891262</v>
+        <v>0.00184834718764347</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -4125,28 +4235,29 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8415893077850342</v>
+        <v>0.7037289142608643</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08300986210840845</v>
+        <v>0.0507132688093561</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03039169311523438</v>
+        <v>0.03090310096740723</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007663075769580901</v>
+        <v>0.004477954951677025</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -4201,28 +4312,29 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="n">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7251651763916016</v>
+        <v>0.639845609664917</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04137572002246502</v>
+        <v>0.04000692759688353</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03327808380126953</v>
+        <v>0.0291656494140625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009665054594280098</v>
+        <v>0.006632420572944477</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -4277,28 +4389,29 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="n">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0693549633026123</v>
+        <v>0.06748185157775879</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01009268100853331</v>
+        <v>0.005890843648247609</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006256628036499024</v>
+        <v>0.004815006256103515</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002010292138699117</v>
+        <v>0.00254118572263617</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
@@ -4353,28 +4466,29 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="n">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.06852807998657226</v>
+        <v>0.06327099800109863</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01546340693139731</v>
+        <v>0.007018379434678206</v>
       </c>
       <c r="C47" t="n">
-        <v>0.006785964965820313</v>
+        <v>0.005398988723754883</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00469254883526569</v>
+        <v>0.001798459098795736</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -4429,28 +4543,29 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="n">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3152378082275391</v>
+        <v>0.3004869937896729</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02776455119235594</v>
+        <v>0.03960627955638658</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01433043479919434</v>
+        <v>0.01069860458374023</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002892357303864964</v>
+        <v>0.003870593448199386</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -4505,28 +4620,29 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="n">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3163644313812256</v>
+        <v>0.2633013725280762</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02458816890002532</v>
+        <v>0.01973222622044282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01345577239990234</v>
+        <v>0.0103574275970459</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002801238076926002</v>
+        <v>0.001425421452042326</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
@@ -4581,28 +4697,29 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="n">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2125026702880859</v>
+        <v>0.1604147911071777</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03080871886546946</v>
+        <v>0.009901528614041998</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01135010719299316</v>
+        <v>0.007690620422363281</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005172415345950425</v>
+        <v>0.001647770915330617</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4657,28 +4774,29 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="n">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1638539791107178</v>
+        <v>0.1525288105010986</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02112767061836784</v>
+        <v>0.0130860846542208</v>
       </c>
       <c r="C51" t="n">
-        <v>0.009509038925170899</v>
+        <v>0.01161274909973145</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001579895449958011</v>
+        <v>0.002331094208495079</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4733,28 +4851,29 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="n">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7801412582397461</v>
+        <v>0.7132138252258301</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07747693465184881</v>
+        <v>0.07968321988476434</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03530139923095703</v>
+        <v>0.03231940269470215</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003442621067613584</v>
+        <v>0.006289662317350933</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4809,28 +4928,29 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="n">
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7090371608734131</v>
+        <v>0.6240233421325684</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1094551514018447</v>
+        <v>0.06603693047569439</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03867602348327637</v>
+        <v>0.0298865795135498</v>
       </c>
       <c r="D53" t="n">
-        <v>0.008901234112228791</v>
+        <v>0.005211089103348034</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4885,28 +5005,29 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.07395882606506347</v>
+        <v>0.06747827529907227</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006219848262772494</v>
+        <v>0.004545136367853989</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005477476119995117</v>
+        <v>0.004886436462402344</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001551393093699273</v>
+        <v>0.001233994999882196</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
@@ -4961,28 +5082,29 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="n">
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.060723876953125</v>
+        <v>0.0699854850769043</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004896115505553297</v>
+        <v>0.006458758275682177</v>
       </c>
       <c r="C55" t="n">
-        <v>0.004992628097534179</v>
+        <v>0.0055145263671875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001898574338084735</v>
+        <v>0.001712287229511053</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
@@ -5037,28 +5159,29 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="n">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3276339530944824</v>
+        <v>0.3267899036407471</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01339032901353248</v>
+        <v>0.0393236251756575</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01275548934936523</v>
+        <v>0.01046047210693359</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004839523098025507</v>
+        <v>0.002715817855338397</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -5113,28 +5236,29 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="n">
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.3020869731903076</v>
+        <v>0.2605234146118164</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01736434594826562</v>
+        <v>0.01580853204800016</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01372084617614746</v>
+        <v>0.01063179969787598</v>
       </c>
       <c r="D57" t="n">
-        <v>0.003711244998332533</v>
+        <v>0.003820296597783448</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
@@ -5189,28 +5313,29 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="n">
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1803536891937256</v>
+        <v>0.1761198043823242</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01051332889968349</v>
+        <v>0.01306181158291507</v>
       </c>
       <c r="C58" t="n">
-        <v>0.007516622543334961</v>
+        <v>0.006438016891479492</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001512694086575969</v>
+        <v>0.0009596056548727556</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5265,28 +5390,29 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="n">
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.2038336277008057</v>
+        <v>0.151579475402832</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05964670642470125</v>
+        <v>0.01747325936393768</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01035251617431641</v>
+        <v>0.01104135513305664</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00465067825201726</v>
+        <v>0.004456768046847256</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5341,28 +5467,29 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="n">
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7508833885192872</v>
+        <v>0.6728603363037109</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07419857361858689</v>
+        <v>0.1082672409212772</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03609309196472168</v>
+        <v>0.03470406532287598</v>
       </c>
       <c r="D60" t="n">
-        <v>0.009798921593557277</v>
+        <v>0.003494427653780263</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5417,28 +5544,29 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="n">
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7344078063964844</v>
+        <v>0.5739932060241699</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1096523057837688</v>
+        <v>0.07336229648122088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03757624626159668</v>
+        <v>0.02970404624938965</v>
       </c>
       <c r="D61" t="n">
-        <v>0.008737046630672101</v>
+        <v>0.0009811062991438718</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5493,28 +5621,29 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.09359192848205566</v>
+        <v>0.07925057411193848</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005872855972148172</v>
+        <v>0.009703473973148845</v>
       </c>
       <c r="C62" t="n">
-        <v>0.006608772277832031</v>
+        <v>0.007264375686645508</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003161178637101921</v>
+        <v>0.003649943593942937</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -5569,28 +5698,29 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="n">
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="n">
         <v>1</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.07820758819580079</v>
+        <v>0.0794978141784668</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00988610193793389</v>
+        <v>0.01004867627181545</v>
       </c>
       <c r="C63" t="n">
-        <v>0.004467916488647461</v>
+        <v>0.006593656539916992</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001105579290807551</v>
+        <v>0.002240658919591276</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
@@ -5645,28 +5775,29 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="n">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="n">
         <v>1</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AA63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.3430235862731933</v>
+        <v>0.3064688205718994</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02096561134324931</v>
+        <v>0.02964275412201531</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01357841491699219</v>
+        <v>0.01266131401062012</v>
       </c>
       <c r="D64" t="n">
-        <v>0.005643619490240319</v>
+        <v>0.007683003373135073</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -5721,28 +5852,29 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="n">
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Z64" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2940847873687744</v>
+        <v>0.2802078247070313</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02157505723344683</v>
+        <v>0.01596764224431141</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008320760726928712</v>
+        <v>0.01067376136779785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001082006549722061</v>
+        <v>0.001971036793225306</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
@@ -5797,28 +5929,29 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="n">
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Z65" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AA65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2407293319702148</v>
+        <v>0.2093894958496094</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03557615144127833</v>
+        <v>0.004685871692080353</v>
       </c>
       <c r="C66" t="n">
-        <v>0.009058284759521484</v>
+        <v>0.009167861938476563</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002177828642140718</v>
+        <v>0.003536036491161399</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5873,28 +6006,29 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="n">
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
         <v>1</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Z66" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AA66" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2181924819946289</v>
+        <v>0.2108329772949219</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02128625251861728</v>
+        <v>0.01677118430526938</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009208106994628906</v>
+        <v>0.007712030410766601</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002747481250256398</v>
+        <v>0.001885626201636183</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5949,28 +6083,29 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="n">
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Z67" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AA67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8833717823028564</v>
+        <v>0.8502977848052978</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09760231059871607</v>
+        <v>0.1021446886511919</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03097000122070313</v>
+        <v>0.03179492950439453</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003596499629276329</v>
+        <v>0.004228375854250268</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -6025,28 +6160,29 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="n">
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="n">
         <v>1</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AA68" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8093502044677734</v>
+        <v>0.743896198272705</v>
       </c>
       <c r="B69" t="n">
-        <v>0.047136069944861</v>
+        <v>0.03137213026511947</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04034414291381836</v>
+        <v>0.0302922248840332</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0168506714252093</v>
+        <v>0.00455195273942646</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -6101,28 +6237,29 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="n">
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="n">
         <v>1</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AA69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.08615598678588868</v>
+        <v>0.07536492347717286</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02041816192305729</v>
+        <v>0.007872954605532567</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005845355987548828</v>
+        <v>0.00322566032409668</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003248684680281378</v>
+        <v>0.0001689229266949731</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
@@ -6177,28 +6314,29 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="n">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="n">
         <v>1</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AA70" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.08055405616760254</v>
+        <v>0.0641171932220459</v>
       </c>
       <c r="B71" t="n">
-        <v>0.006646016002837484</v>
+        <v>0.006451763546244346</v>
       </c>
       <c r="C71" t="n">
-        <v>0.004946136474609375</v>
+        <v>0.003664445877075195</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00220916384720902</v>
+        <v>0.001137712409295578</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -6253,28 +6391,29 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="n">
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="n">
         <v>1</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AA71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3210050106048584</v>
+        <v>0.2830772399902344</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02678338521053968</v>
+        <v>0.02484724477162636</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01404638290405274</v>
+        <v>0.01104860305786133</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003020321601439157</v>
+        <v>0.003002762998090781</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
@@ -6329,28 +6468,29 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="n">
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="n">
         <v>1</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="Z72" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AA72" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2913905620574951</v>
+        <v>0.2727218151092529</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0185816808735905</v>
+        <v>0.01534568592315611</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01040759086608887</v>
+        <v>0.009052419662475586</v>
       </c>
       <c r="D73" t="n">
-        <v>0.002235249856812127</v>
+        <v>0.001229827312669415</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -6405,28 +6545,29 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="n">
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="n">
         <v>1</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AA73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2087849617004394</v>
+        <v>0.188227653503418</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02008994366467884</v>
+        <v>0.01034102484965818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.008309459686279297</v>
+        <v>0.008243131637573241</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002458643165920562</v>
+        <v>0.002250820819694646</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6481,28 +6622,29 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="n">
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="n">
         <v>1</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Z74" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AA74" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1899168968200683</v>
+        <v>0.189344596862793</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01173597611940196</v>
+        <v>0.007462181347081252</v>
       </c>
       <c r="C75" t="n">
-        <v>0.007942295074462891</v>
+        <v>0.009453010559082032</v>
       </c>
       <c r="D75" t="n">
-        <v>0.001219850150880959</v>
+        <v>0.00370012660204638</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6557,28 +6699,29 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="n">
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="n">
         <v>1</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Z75" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AA75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.05965690612793</v>
+        <v>0.8571466922760009</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2130015666232879</v>
+        <v>0.1359654756892114</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0604489803314209</v>
+        <v>0.05202078819274902</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0460630437809721</v>
+        <v>0.03868476324419096</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6633,28 +6776,29 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="n">
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="n">
         <v>1</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Z76" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="AA76" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.011020040512085</v>
+        <v>0.7869142532348633</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1944681482627015</v>
+        <v>0.1177741358730782</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0325416088104248</v>
+        <v>0.03369498252868652</v>
       </c>
       <c r="D77" t="n">
-        <v>0.007522876354875736</v>
+        <v>0.01087659752285493</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6709,28 +6853,29 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="n">
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="n">
         <v>1</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="Z77" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AA77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.07766184806823731</v>
+        <v>0.0725409984588623</v>
       </c>
       <c r="B78" t="n">
-        <v>0.005000979831837994</v>
+        <v>0.006118770863423185</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004885101318359375</v>
+        <v>0.004111671447753906</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002044435968757759</v>
+        <v>0.000887087856798234</v>
       </c>
       <c r="E78" t="n">
         <v>3</v>
@@ -6785,28 +6930,29 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="n">
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="n">
         <v>1</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Z78" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AA78" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.07325983047485352</v>
+        <v>0.07005066871643066</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01082638025452642</v>
+        <v>0.00948404999801045</v>
       </c>
       <c r="C79" t="n">
-        <v>0.007279300689697265</v>
+        <v>0.006871080398559571</v>
       </c>
       <c r="D79" t="n">
-        <v>0.003032436831589913</v>
+        <v>0.003359840826815261</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
@@ -6861,28 +7007,29 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="n">
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="n">
         <v>1</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Z79" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="AA79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3725314617156982</v>
+        <v>0.355237340927124</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06301779126586114</v>
+        <v>0.05288610028791407</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01551275253295898</v>
+        <v>0.01138091087341309</v>
       </c>
       <c r="D80" t="n">
-        <v>0.009813533745855694</v>
+        <v>0.005155174167559393</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -6937,28 +7084,29 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="n">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="n">
         <v>1</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Z80" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AA80" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5004872798919677</v>
+        <v>0.3157723426818848</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05078516647174762</v>
+        <v>0.0505111058257214</v>
       </c>
       <c r="C81" t="n">
-        <v>0.016424560546875</v>
+        <v>0.01143374443054199</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005810799975962854</v>
+        <v>0.003985447866830119</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
@@ -7013,28 +7161,29 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="n">
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="n">
         <v>1</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Z81" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="AA81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3072186470031738</v>
+        <v>0.186136531829834</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09618229151506912</v>
+        <v>0.01538315545289773</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01102514266967774</v>
+        <v>0.008889579772949218</v>
       </c>
       <c r="D82" t="n">
-        <v>0.002868798063893993</v>
+        <v>0.001144523819506129</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -7089,28 +7238,29 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="n">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="n">
         <v>1</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Z82" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="AA82" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2281943798065185</v>
+        <v>0.1692602157592774</v>
       </c>
       <c r="B83" t="n">
-        <v>0.026324260215655</v>
+        <v>0.01563583950477277</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0168919563293457</v>
+        <v>0.007520532608032227</v>
       </c>
       <c r="D83" t="n">
-        <v>0.008908742898178525</v>
+        <v>0.001508990048598069</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7165,28 +7315,29 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="n">
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="n">
         <v>1</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="Z83" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z83" t="n">
+      <c r="AA83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8583834171295166</v>
+        <v>0.5873598575592041</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1831327307996568</v>
+        <v>0.05930963662527805</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03979039192199707</v>
+        <v>0.03077535629272461</v>
       </c>
       <c r="D84" t="n">
-        <v>0.009519318845544326</v>
+        <v>0.006763743989172425</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7241,28 +7392,29 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="n">
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="n">
         <v>1</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="Z84" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AA84" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7023337841033935</v>
+        <v>0.5250470638275146</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1771001456348492</v>
+        <v>0.06116318448133171</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02564153671264648</v>
+        <v>0.02527942657470703</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004825341960303505</v>
+        <v>0.003722112469357211</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7317,13 +7469,14 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="n">
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="n">
         <v>1</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="Z85" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AA85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7338,7 +7491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7394,30 +7547,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>n_iter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>penalty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>colsample_bytree</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subsample</t>
         </is>
@@ -7459,6 +7622,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7485,21 +7650,27 @@
         <v>0.2709447415329768</v>
       </c>
       <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7532,13 +7703,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -7553,7 +7726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7609,30 +7782,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>n_iter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>penalty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>colsample_bytree</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subsample</t>
         </is>
@@ -7674,6 +7857,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7700,21 +7885,27 @@
         <v>0.2787136294027565</v>
       </c>
       <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7747,13 +7938,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -7768,7 +7961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7884,25 +8077,30 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>param_max_iter</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>param_penalty</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>param_solver</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>param_colsample_bytree</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>param_learning_rate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>param_subsample</t>
         </is>
@@ -7910,16 +8108,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.128417491912842</v>
+        <v>1.05279860496521</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01366542621814525</v>
+        <v>0.04257530609555923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02849555015563965</v>
+        <v>0.0270045280456543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006373700115901943</v>
+        <v>0.004374615010542851</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -7979,19 +8177,20 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.916060590744019</v>
+        <v>5.439451932907104</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1389946460626135</v>
+        <v>0.03485653570706611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1311331748962402</v>
+        <v>0.1120470523834229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01269946257469099</v>
+        <v>0.0059237026174323</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -8051,19 +8250,20 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.213716411590576</v>
+        <v>1.164007949829102</v>
       </c>
       <c r="B4" t="n">
-        <v>0.131339144216311</v>
+        <v>0.1165170986667533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1045267581939697</v>
+        <v>0.02220401763916015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1373911129345553</v>
+        <v>0.003067584678334274</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -8123,19 +8323,20 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.199248361587524</v>
+        <v>5.155212879180908</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1564770326474602</v>
+        <v>0.3001071978989082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1090337753295898</v>
+        <v>0.1221875667572021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009277590654298852</v>
+        <v>0.01472460437059542</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -8195,19 +8396,20 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.059129238128662</v>
+        <v>0.925969123840332</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04603971026375901</v>
+        <v>0.1220223607059976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02385177612304688</v>
+        <v>0.0252082347869873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00270871735414637</v>
+        <v>0.003549562475465386</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -8267,19 +8469,20 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.842725467681885</v>
+        <v>5.387145042419434</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05303439570752224</v>
+        <v>0.1654121171480391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1190948963165283</v>
+        <v>0.1039113998413086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009953709893932662</v>
+        <v>0.007271884579562325</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -8339,19 +8542,20 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.148032236099243</v>
+        <v>0.9956982135772705</v>
       </c>
       <c r="B8" t="n">
-        <v>0.27667476076092</v>
+        <v>0.09636731496597541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03247599601745606</v>
+        <v>0.02148900032043457</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01800828563068808</v>
+        <v>0.006005707102207271</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -8411,19 +8615,20 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.385541248321533</v>
+        <v>4.772557878494263</v>
       </c>
       <c r="B9" t="n">
-        <v>0.131286977883974</v>
+        <v>0.06343571743894832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1485095977783203</v>
+        <v>0.1169451713562012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04049814367321775</v>
+        <v>0.01292260089946948</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -8483,19 +8688,20 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9593070030212403</v>
+        <v>0.8266406059265137</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05178814431146039</v>
+        <v>0.03534554344132047</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0220179557800293</v>
+        <v>0.02217488288879394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002744179969185836</v>
+        <v>0.004364201181245583</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -8557,19 +8763,20 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.992598485946655</v>
+        <v>4.411610269546509</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0858867172581424</v>
+        <v>0.1531560207329579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1055788040161133</v>
+        <v>0.08514566421508789</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005922612177924602</v>
+        <v>0.006835733346719158</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -8631,19 +8838,20 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.00235743522644</v>
+        <v>0.856022834777832</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01632000975714857</v>
+        <v>0.07699586680875636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02074117660522461</v>
+        <v>0.02123994827270508</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002615208372785422</v>
+        <v>0.005597105988200033</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -8705,19 +8913,20 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.010655879974365</v>
+        <v>4.322406578063965</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09175023203475252</v>
+        <v>0.09375724963452253</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1035045623779297</v>
+        <v>0.08567318916320801</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01540448399682071</v>
+        <v>0.004140932900752374</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -8779,19 +8988,20 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9832427024841308</v>
+        <v>0.898964262008667</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02763465687620418</v>
+        <v>0.05208686322069332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01953701972961426</v>
+        <v>0.01794934272766113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001712329248888295</v>
+        <v>0.003610704202778051</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -8853,19 +9063,20 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.169948863983154</v>
+        <v>4.095625734329223</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1512235634154149</v>
+        <v>0.081938147550546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1248867988586426</v>
+        <v>0.08667907714843751</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03358720215503448</v>
+        <v>0.004576564220118831</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -8927,19 +9138,20 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.066075086593628</v>
+        <v>0.7965874195098877</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0962429122827325</v>
+        <v>0.02344051087891171</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02147011756896973</v>
+        <v>0.02246074676513672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003399194893918285</v>
+        <v>0.005168209241998828</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -9001,19 +9213,20 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.411966609954834</v>
+        <v>4.037653398513794</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2023895317357307</v>
+        <v>0.1170629693317753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09090275764465332</v>
+        <v>0.08467621803283691</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002097903739207872</v>
+        <v>0.007058978964567109</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -9075,19 +9288,20 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.371950244903565</v>
+        <v>1.011497163772583</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3197553499846111</v>
+        <v>0.0337110549795093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02961297035217285</v>
+        <v>0.02585511207580566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003427457870148307</v>
+        <v>0.002907861412462924</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -9149,19 +9363,20 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.489681482315063</v>
+        <v>5.02071623802185</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0820152791994538</v>
+        <v>0.08134519369001741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1316938877105713</v>
+        <v>0.1782443523406982</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01482062911514363</v>
+        <v>0.08704990115206719</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -9223,19 +9438,20 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.077712392807007</v>
+        <v>0.9513767242431641</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06066712100078058</v>
+        <v>0.03625353960390909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0256591796875</v>
+        <v>0.02109808921813965</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00395926329793781</v>
+        <v>0.00487524059329666</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -9297,19 +9513,20 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.709994268417359</v>
+        <v>5.544277000427246</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0553296923574503</v>
+        <v>0.1990380944323401</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1192048072814941</v>
+        <v>0.1230913162231445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007669522538112197</v>
+        <v>0.01069574550911703</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -9371,19 +9588,20 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.205322933197021</v>
+        <v>1.177147197723389</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06100993664796993</v>
+        <v>0.1894402347996993</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02564473152160645</v>
+        <v>0.02471256256103516</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002128672595386371</v>
+        <v>0.002579730116398815</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -9445,19 +9663,20 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.414341449737549</v>
+        <v>5.32265419960022</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1021165779482663</v>
+        <v>0.1494843239986542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1221090793609619</v>
+        <v>0.09390640258789062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009626051084522615</v>
+        <v>0.01075627899663823</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -9519,19 +9738,20 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.078454256057739</v>
+        <v>1.087592601776123</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03449274037068806</v>
+        <v>0.07494266573367277</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0225886344909668</v>
+        <v>0.03502449989318848</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003014449453315199</v>
+        <v>0.02541409829038971</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -9593,19 +9813,20 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.16607813835144</v>
+        <v>3.728880453109741</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2152389666020871</v>
+        <v>0.1485956392931329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08696169853210449</v>
+        <v>0.09881196022033692</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01125979854339237</v>
+        <v>0.02932274509266306</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -9667,19 +9888,20 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.009920454025268555</v>
+        <v>0.01029305458068848</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0009941343538199447</v>
+        <v>0.00139471249166618</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002550983428955078</v>
+        <v>0.001733207702636719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0009114765615730236</v>
+        <v>0.0003562325788290908</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -9687,7 +9909,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -9730,32 +9952,35 @@
       <c r="U26" t="n">
         <v>0.1</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02808899879455566</v>
+        <v>0.02002658843994141</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004021270801070222</v>
+        <v>0.005288805351454207</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002649974822998047</v>
+        <v>0.002026081085205078</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001060440732319079</v>
+        <v>0.000583434474662485</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -9763,7 +9988,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -9806,32 +10031,35 @@
       <c r="U27" t="n">
         <v>0.1</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01178655624389648</v>
+        <v>0.007182645797729492</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00228089906451587</v>
+        <v>0.0005603776487693139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002353239059448242</v>
+        <v>0.001616477966308594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0006188796971222122</v>
+        <v>0.000158940776112299</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -9839,7 +10067,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -9882,32 +10110,35 @@
       <c r="U28" t="n">
         <v>0.1</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.02680344581604004</v>
+        <v>0.01479902267456055</v>
       </c>
       <c r="B29" t="n">
-        <v>0.004180163495865079</v>
+        <v>0.002875423242407588</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003330373764038086</v>
+        <v>0.001517009735107422</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001211797863122711</v>
+        <v>0.0001127096592641046</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -9915,7 +10146,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -9958,32 +10189,35 @@
       <c r="U29" t="n">
         <v>0.1</v>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01501684188842773</v>
+        <v>0.01031980514526367</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002149677355939632</v>
+        <v>0.001606025339993533</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002787351608276367</v>
+        <v>0.002285337448120117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001285824990996362</v>
+        <v>0.0009778571301812808</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -9991,7 +10225,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -10034,32 +10268,35 @@
       <c r="U30" t="n">
         <v>1</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0369016170501709</v>
+        <v>0.02086758613586426</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005356484320545064</v>
+        <v>0.002717764976228147</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003564119338989258</v>
+        <v>0.0020416259765625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00167088426890029</v>
+        <v>0.0009362246604744661</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -10067,7 +10304,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -10110,32 +10347,35 @@
       <c r="U31" t="n">
         <v>1</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.01222596168518066</v>
+        <v>0.006905603408813477</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00314998716792649</v>
+        <v>0.001012706116707472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003223991394042969</v>
+        <v>0.001438426971435547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001241594436233848</v>
+        <v>9.733301177519186e-05</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -10143,7 +10383,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -10186,32 +10426,35 @@
       <c r="U32" t="n">
         <v>1</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02912755012512207</v>
+        <v>0.01701526641845703</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005376622288548357</v>
+        <v>0.002543477299447497</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003580904006958008</v>
+        <v>0.002824115753173828</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001845228005663335</v>
+        <v>0.001531169825928587</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -10219,7 +10462,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -10262,32 +10505,35 @@
       <c r="U33" t="n">
         <v>1</v>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.07255849838256836</v>
+        <v>0.03355989456176758</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05281041886452955</v>
+        <v>0.002963102502847899</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004541921615600586</v>
+        <v>0.002321386337280274</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001748448123202876</v>
+        <v>0.001073263340611849</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -10295,7 +10541,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -10338,32 +10584,35 @@
       <c r="U34" t="n">
         <v>10</v>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="V34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1348785877227783</v>
+        <v>0.02249011993408203</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03472977524208629</v>
+        <v>0.0037657142692133</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01108160018920898</v>
+        <v>0.001973724365234375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007586683465376071</v>
+        <v>0.0005977152655882514</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -10371,7 +10620,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -10414,32 +10663,35 @@
       <c r="U35" t="n">
         <v>10</v>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="V35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.04298725128173828</v>
+        <v>0.01102185249328613</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03977397445829964</v>
+        <v>0.004124961005492063</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003702259063720703</v>
+        <v>0.001972007751464844</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001580136249216421</v>
+        <v>0.0007779674357218072</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -10447,7 +10699,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -10490,32 +10742,35 @@
       <c r="U36" t="n">
         <v>10</v>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="V36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.02290120124816895</v>
+        <v>0.01678218841552735</v>
       </c>
       <c r="B37" t="n">
-        <v>0.002722523761673352</v>
+        <v>0.001210617853590967</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002342510223388672</v>
+        <v>0.00207357406616211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001104186577238331</v>
+        <v>0.001334223629248542</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -10523,7 +10778,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -10566,32 +10821,35 @@
       <c r="U37" t="n">
         <v>10</v>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="V37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1341739654541016</v>
+        <v>0.1164905548095703</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04021473031436144</v>
+        <v>0.02722376544123272</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004650020599365234</v>
+        <v>0.003667068481445312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00283168366149316</v>
+        <v>0.001815885775259141</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -10646,28 +10904,29 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.118744421005249</v>
+        <v>0.09350857734680176</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03222265079576437</v>
+        <v>0.02316166995365889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007652950286865234</v>
+        <v>0.00339360237121582</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005565323645211099</v>
+        <v>0.001424773792579369</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
@@ -10722,28 +10981,29 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3007990837097168</v>
+        <v>0.2808648109436035</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0139326171311825</v>
+        <v>0.01916020201304807</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01306285858154297</v>
+        <v>0.01100320816040039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004856476212731113</v>
+        <v>0.002995055585865749</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -10798,28 +11058,29 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2801249980926513</v>
+        <v>0.2506250858306885</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01503765860040076</v>
+        <v>0.01281144761446581</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008354616165161134</v>
+        <v>0.01058220863342285</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001680083210415192</v>
+        <v>0.003756428901631322</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -10874,28 +11135,29 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2378579139709473</v>
+        <v>0.1894156455993652</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01938582653377922</v>
+        <v>0.01731609274803716</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01655645370483399</v>
+        <v>0.006819581985473633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.005793379331864122</v>
+        <v>0.002596309850120787</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -10950,28 +11212,29 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2351004600524902</v>
+        <v>0.1853265762329102</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01249313743096211</v>
+        <v>0.01625271709018429</v>
       </c>
       <c r="C43" t="n">
-        <v>0.007610034942626953</v>
+        <v>0.007169389724731445</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001920502742727973</v>
+        <v>0.003010042568611598</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -11026,28 +11289,29 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9598723411560058</v>
+        <v>0.7891495704650879</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1811500169617631</v>
+        <v>0.09652968818165768</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03810114860534668</v>
+        <v>0.03049592971801758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007044682661335974</v>
+        <v>0.006287014375174091</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -11102,28 +11366,29 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="n">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9428428173065185</v>
+        <v>0.7555870532989502</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08731325361361861</v>
+        <v>0.05240744845701707</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0391629695892334</v>
+        <v>0.02962861061096191</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01157185070372695</v>
+        <v>0.004460463055582247</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -11178,28 +11443,29 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="n">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.09142441749572754</v>
+        <v>0.07172579765319824</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01415702500234793</v>
+        <v>0.01260719456854165</v>
       </c>
       <c r="C46" t="n">
-        <v>0.005637788772583007</v>
+        <v>0.003509426116943359</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002180326122316749</v>
+        <v>0.0005125280507259352</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
@@ -11254,28 +11520,29 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="n">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.08206567764282227</v>
+        <v>0.06661062240600586</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0119180114767574</v>
+        <v>0.003699671971370457</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005968761444091797</v>
+        <v>0.004577970504760743</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00254152343324493</v>
+        <v>0.001034373180001071</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -11330,28 +11597,29 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="n">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.415321159362793</v>
+        <v>0.2976526737213135</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08033405820684225</v>
+        <v>0.00939194206382671</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01319704055786133</v>
+        <v>0.00907902717590332</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002347238331885206</v>
+        <v>0.002704425026742876</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -11406,28 +11674,29 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="n">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3414217472076416</v>
+        <v>0.3014886379241943</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03953476645287166</v>
+        <v>0.0412826037160422</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01438217163085937</v>
+        <v>0.01488871574401856</v>
       </c>
       <c r="D49" t="n">
-        <v>0.007476597859365156</v>
+        <v>0.008667788244691098</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
@@ -11482,28 +11751,29 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="n">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2598147869110107</v>
+        <v>0.2037173748016357</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0308208465197718</v>
+        <v>0.02314103991073329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01163663864135742</v>
+        <v>0.008864021301269532</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00539895154548962</v>
+        <v>0.003248966120891672</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -11558,28 +11828,29 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="n">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.2375374317169189</v>
+        <v>0.1698750019073486</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06065944362355902</v>
+        <v>0.01081265195764411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00897669792175293</v>
+        <v>0.008247947692871094</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002622953196648941</v>
+        <v>0.005513354578486659</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -11634,28 +11905,29 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="n">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9142014026641846</v>
+        <v>0.6806728839874268</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1541323212381509</v>
+        <v>0.09525528507151092</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03810782432556152</v>
+        <v>0.03488092422485352</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004010298699958118</v>
+        <v>0.007721890861398179</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -11710,28 +11982,29 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="n">
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8462370872497559</v>
+        <v>0.6302576065063477</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1270350847554605</v>
+        <v>0.07893338123970903</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0478635311126709</v>
+        <v>0.02929320335388184</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02876503561472379</v>
+        <v>0.004786505385141091</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -11786,28 +12059,29 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1001466274261475</v>
+        <v>0.0712517261505127</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01945736198800359</v>
+        <v>0.01412624952540363</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009012413024902344</v>
+        <v>0.003623867034912109</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00617959738590817</v>
+        <v>0.001296860363361225</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
@@ -11862,28 +12136,29 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="n">
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.08267459869384766</v>
+        <v>0.06083693504333496</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01036896234355575</v>
+        <v>0.0108368510595413</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006067276000976562</v>
+        <v>0.004761886596679687</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001729064452449895</v>
+        <v>0.003744864647092964</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
@@ -11938,28 +12213,29 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="n">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3333993911743164</v>
+        <v>0.2750921249389648</v>
       </c>
       <c r="B56" t="n">
-        <v>0.026641695517858</v>
+        <v>0.00568947012377157</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01126747131347656</v>
+        <v>0.01334004402160644</v>
       </c>
       <c r="D56" t="n">
-        <v>0.003600691498708604</v>
+        <v>0.005705239442610018</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -12014,28 +12290,29 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="n">
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2925283908843994</v>
+        <v>0.256462574005127</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01801110421034147</v>
+        <v>0.009861284084268149</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01077499389648437</v>
+        <v>0.01051778793334961</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001985670429836662</v>
+        <v>0.00255137028053893</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
@@ -12090,28 +12367,29 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="n">
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.2065587997436523</v>
+        <v>0.1775676250457764</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02448618461370659</v>
+        <v>0.01723404053031821</v>
       </c>
       <c r="C58" t="n">
-        <v>0.008627033233642578</v>
+        <v>0.008211612701416016</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00170388234217781</v>
+        <v>0.002257138669914997</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -12166,28 +12444,29 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="n">
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1803953647613525</v>
+        <v>0.1729709625244141</v>
       </c>
       <c r="B59" t="n">
-        <v>0.009393924677576859</v>
+        <v>0.01340749436265216</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007273626327514648</v>
+        <v>0.006654596328735352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001638695801439138</v>
+        <v>0.001303370630161594</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -12242,28 +12521,29 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="n">
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7537340641021728</v>
+        <v>0.5917817115783691</v>
       </c>
       <c r="B60" t="n">
-        <v>0.114888488001575</v>
+        <v>0.07848995910810866</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04305739402770996</v>
+        <v>0.03743691444396972</v>
       </c>
       <c r="D60" t="n">
-        <v>0.007656507133928105</v>
+        <v>0.004909725626068722</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -12318,28 +12598,29 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="n">
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7977148056030273</v>
+        <v>0.562790060043335</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1534211158147776</v>
+        <v>0.07218048426338779</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03479280471801758</v>
+        <v>0.0291419506072998</v>
       </c>
       <c r="D61" t="n">
-        <v>0.004194261323001277</v>
+        <v>0.001473157615821522</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -12394,28 +12675,29 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.09145059585571289</v>
+        <v>0.07549600601196289</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01063410224929828</v>
+        <v>0.01025834918891228</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005771017074584961</v>
+        <v>0.004981803894042969</v>
       </c>
       <c r="D62" t="n">
-        <v>0.002310035005048873</v>
+        <v>0.001787719431846099</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -12470,28 +12752,29 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="n">
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="n">
         <v>1</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.08993330001831054</v>
+        <v>0.0703956127166748</v>
       </c>
       <c r="B63" t="n">
-        <v>0.008012505574056349</v>
+        <v>0.004776827302055072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.008439874649047852</v>
+        <v>0.00398855209350586</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002653455317372782</v>
+        <v>0.00217552233553337</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
@@ -12546,28 +12829,29 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="n">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="n">
         <v>1</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AA63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5150231838226318</v>
+        <v>0.2909024715423584</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01440109658935789</v>
+        <v>0.01090180125744997</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01029119491577148</v>
+        <v>0.008206987380981445</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00432643471574137</v>
+        <v>0.001460354310855567</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -12622,28 +12906,29 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="n">
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Z64" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.3483659744262695</v>
+        <v>0.2859708309173584</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07809721003200165</v>
+        <v>0.01489800220391035</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01265425682067871</v>
+        <v>0.01005845069885254</v>
       </c>
       <c r="D65" t="n">
-        <v>0.003348444449368561</v>
+        <v>0.002345644572712215</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
@@ -12698,28 +12983,29 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="n">
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Z65" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AA65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2909029483795166</v>
+        <v>0.2227263927459717</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03411280118851442</v>
+        <v>0.01239468843094329</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01159744262695312</v>
+        <v>0.008266782760620118</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005762803861584165</v>
+        <v>0.002776286986655463</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -12774,28 +13060,29 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="n">
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
         <v>1</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Z66" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AA66" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2727792739868164</v>
+        <v>0.2052526950836182</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02660503660205212</v>
+        <v>0.01209758971500822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009544658660888671</v>
+        <v>0.006909656524658203</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004177190917220483</v>
+        <v>0.001538875849517692</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -12850,28 +13137,29 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="n">
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Z67" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AA67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.149541187286377</v>
+        <v>0.819507360458374</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1106938728362444</v>
+        <v>0.06152810026751149</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03397378921508789</v>
+        <v>0.02569484710693359</v>
       </c>
       <c r="D68" t="n">
-        <v>0.009818824715516145</v>
+        <v>0.004568952565974989</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -12926,28 +13214,29 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="n">
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="n">
         <v>1</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AA68" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9972353935241699</v>
+        <v>0.750183391571045</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06488945340594401</v>
+        <v>0.06154573360635252</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0376309871673584</v>
+        <v>0.02784204483032227</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01066301065098454</v>
+        <v>0.002836746867794873</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -13002,28 +13291,29 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="n">
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="n">
         <v>1</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AA69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.08614850044250488</v>
+        <v>0.07279925346374512</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007859596839103934</v>
+        <v>0.004183666679285556</v>
       </c>
       <c r="C70" t="n">
-        <v>0.007887649536132812</v>
+        <v>0.00403127670288086</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002559379826455178</v>
+        <v>0.002134728385768465</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
@@ -13078,28 +13368,29 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="n">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="n">
         <v>1</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AA70" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.08252239227294922</v>
+        <v>0.06765093803405761</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005987942495204237</v>
+        <v>0.003959107629785792</v>
       </c>
       <c r="C71" t="n">
-        <v>0.005724620819091797</v>
+        <v>0.005287408828735352</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001912916083093865</v>
+        <v>0.002123882542990171</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -13154,28 +13445,29 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="n">
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="n">
         <v>1</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AA71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3707853317260742</v>
+        <v>0.2965845584869385</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01991921864823467</v>
+        <v>0.009659801093395976</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01567583084106445</v>
+        <v>0.01159706115722656</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005523782612357857</v>
+        <v>0.006123369222553818</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
@@ -13230,28 +13522,29 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="n">
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="n">
         <v>1</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="Z72" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AA72" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3222317218780518</v>
+        <v>0.265852689743042</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03448067672601567</v>
+        <v>0.03712708288652931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01423473358154297</v>
+        <v>0.00865931510925293</v>
       </c>
       <c r="D73" t="n">
-        <v>0.005550397264574111</v>
+        <v>0.002244544607535613</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -13306,28 +13599,29 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="n">
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="n">
         <v>1</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AA73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2530105590820312</v>
+        <v>0.2001889228820801</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02291851374356897</v>
+        <v>0.01323025481217008</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01319665908813477</v>
+        <v>0.007279062271118164</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004532991999622081</v>
+        <v>0.002331898136425845</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -13382,28 +13676,29 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="n">
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="n">
         <v>1</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Z74" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AA74" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2407532215118408</v>
+        <v>0.1890945911407471</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02168578571539497</v>
+        <v>0.01077760400044077</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0101496696472168</v>
+        <v>0.007941627502441406</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002899589011839461</v>
+        <v>0.002805769834291904</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -13458,28 +13753,29 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="n">
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="n">
         <v>1</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Z75" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AA75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.962693452835083</v>
+        <v>0.7365864276885986</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1200202607869507</v>
+        <v>0.09553504510098058</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0377774715423584</v>
+        <v>0.02813892364501953</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005608699665784487</v>
+        <v>0.003176364805537861</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -13534,28 +13830,29 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="n">
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="n">
         <v>1</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Z76" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="AA76" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8910727977752686</v>
+        <v>0.6776941776275635</v>
       </c>
       <c r="B77" t="n">
-        <v>0.112460061439607</v>
+        <v>0.08069881167438164</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03557686805725098</v>
+        <v>0.0277855396270752</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01234285733833705</v>
+        <v>0.004412380767860072</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -13610,28 +13907,29 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="n">
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="n">
         <v>1</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="Z77" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AA77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.09738097190856934</v>
+        <v>0.07333612442016602</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01053302401102497</v>
+        <v>0.01367462238083243</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004586982727050781</v>
+        <v>0.004039382934570313</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002578872334563589</v>
+        <v>0.001324615816121893</v>
       </c>
       <c r="E78" t="n">
         <v>3</v>
@@ -13686,28 +13984,29 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="n">
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="n">
         <v>1</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Z78" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AA78" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.07729406356811523</v>
+        <v>0.06175665855407715</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01420402367771007</v>
+        <v>0.004305805851983052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.006773757934570313</v>
+        <v>0.002913331985473633</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002881770596326277</v>
+        <v>5.449929565937456e-05</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
@@ -13762,28 +14061,29 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="n">
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="n">
         <v>1</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Z79" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="AA79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3389405727386475</v>
+        <v>0.2790545463562012</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02803231732767228</v>
+        <v>0.0118516392906704</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01282386779785156</v>
+        <v>0.009564065933227539</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004307138009582907</v>
+        <v>0.002954137072615749</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -13838,28 +14138,29 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="n">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="n">
         <v>1</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Z80" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AA80" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3178016185760498</v>
+        <v>0.2623665809631348</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02324266230775786</v>
+        <v>0.01177212997138263</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01309957504272461</v>
+        <v>0.009000778198242188</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002646014266803084</v>
+        <v>0.003197092286523841</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
@@ -13914,28 +14215,29 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="n">
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="n">
         <v>1</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Z81" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="AA81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.2363011837005615</v>
+        <v>0.1879098892211914</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05215367250328129</v>
+        <v>0.02660246913634856</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01067938804626465</v>
+        <v>0.005916309356689453</v>
       </c>
       <c r="D82" t="n">
-        <v>0.002353969248295547</v>
+        <v>0.0004730696231649605</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -13990,28 +14292,29 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="n">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="n">
         <v>1</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Z82" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="AA82" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2064294815063477</v>
+        <v>0.1601285457611084</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01651200336898324</v>
+        <v>0.01264733644064764</v>
       </c>
       <c r="C83" t="n">
-        <v>0.009627723693847656</v>
+        <v>0.006479597091674805</v>
       </c>
       <c r="D83" t="n">
-        <v>0.003022365948868287</v>
+        <v>0.001686615768108944</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -14066,28 +14369,29 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="n">
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="n">
         <v>1</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="Z83" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z83" t="n">
+      <c r="AA83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.7858985424041748</v>
+        <v>0.5130502700805664</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1280985696390533</v>
+        <v>0.05924936455356362</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0315281867980957</v>
+        <v>0.02519388198852539</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00255091627173686</v>
+        <v>0.002490638224896598</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -14142,28 +14446,29 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="n">
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="n">
         <v>1</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="Z84" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AA84" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6370013236999512</v>
+        <v>0.4402108192443848</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1086203553194318</v>
+        <v>0.06579502063178078</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02473883628845215</v>
+        <v>0.02115392684936523</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004955456927705543</v>
+        <v>0.001025382713162462</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -14218,13 +14523,14 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="n">
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="n">
         <v>1</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="Z85" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AA85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14239,7 +14545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14295,30 +14601,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>n_iter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>penalty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>colsample_bytree</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subsample</t>
         </is>
@@ -14362,6 +14678,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14388,21 +14706,27 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.1</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14435,13 +14759,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -14456,7 +14782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14512,30 +14838,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>n_iter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>penalty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>colsample_bytree</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>subsample</t>
         </is>
@@ -14579,6 +14915,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14605,21 +14943,27 @@
         <v>0.2674591381872214</v>
       </c>
       <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.1</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14652,13 +14996,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -14673,7 +15019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14789,25 +15135,30 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>param_max_iter</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>param_penalty</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>param_solver</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>param_colsample_bytree</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>param_learning_rate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>param_subsample</t>
         </is>
@@ -14815,16 +15166,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.280058002471924</v>
+        <v>0.9748855590820312</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04839647564785135</v>
+        <v>0.01961118381016432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03564934730529785</v>
+        <v>0.02261209487915039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006638845318747226</v>
+        <v>0.00518780680165464</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -14884,19 +15235,20 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.103971004486084</v>
+        <v>4.702655601501465</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1043926094742712</v>
+        <v>0.1391104979290106</v>
       </c>
       <c r="C3" t="n">
-        <v>0.119664478302002</v>
+        <v>0.1061676502227783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007119244611286196</v>
+        <v>0.006039375643671103</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -14956,19 +15308,20 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.045974493026733</v>
+        <v>0.9049328804016114</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02568320143595645</v>
+        <v>0.04820369093986288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0267786979675293</v>
+        <v>0.02560758590698242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002050487704942382</v>
+        <v>0.006250410326165577</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -15028,19 +15381,20 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.406825637817382</v>
+        <v>4.701415538787842</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4277233252788403</v>
+        <v>0.1729389660645362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1120403289794922</v>
+        <v>0.1219264507293701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009811539253406883</v>
+        <v>0.02126522607644003</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -15100,19 +15454,20 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.055165863037109</v>
+        <v>0.9473233699798584</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05911002824943195</v>
+        <v>0.0510677690496367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02820901870727539</v>
+        <v>0.02333827018737793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003872220144417621</v>
+        <v>0.003304591140607285</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -15172,19 +15527,20 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.437384939193725</v>
+        <v>4.977996444702148</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08040745336142655</v>
+        <v>0.115022776369609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09893674850463867</v>
+        <v>0.1175371646881103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008509852013467675</v>
+        <v>0.009381181746395077</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -15244,19 +15600,20 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8799710750579834</v>
+        <v>0.9621617794036865</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04890325183022499</v>
+        <v>0.03119840284827666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02345962524414063</v>
+        <v>0.02421741485595703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003344350667064247</v>
+        <v>0.005053305950723443</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -15316,19 +15673,20 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.338552951812744</v>
+        <v>4.986293077468872</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1163223084695886</v>
+        <v>0.0792555520027118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1025012969970703</v>
+        <v>0.09381508827209473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009066426201695545</v>
+        <v>0.003735647682123338</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -15388,19 +15746,20 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.810411787033081</v>
+        <v>0.8971790313720703</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07057866535561533</v>
+        <v>0.03473284884495495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02103371620178223</v>
+        <v>0.02383923530578613</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004966178432805461</v>
+        <v>0.005254439790301015</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -15462,19 +15821,20 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.084533548355102</v>
+        <v>4.207891798019409</v>
       </c>
       <c r="B11" t="n">
-        <v>0.155519477244</v>
+        <v>0.1626783508582653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1152520656585693</v>
+        <v>0.08494005203247071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0403023195693572</v>
+        <v>0.008978583998376225</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -15536,19 +15896,20 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8285979747772216</v>
+        <v>0.7999323844909668</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05031297442879019</v>
+        <v>0.1061499149886606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02573232650756836</v>
+        <v>0.02667827606201172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00713309750970398</v>
+        <v>0.01722900076898728</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -15610,19 +15971,20 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.176281356811524</v>
+        <v>4.199002933502197</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1012400371585998</v>
+        <v>0.1177101043777569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100808572769165</v>
+        <v>0.1152288436889648</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008249125748445125</v>
+        <v>0.03933393252101161</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -15684,19 +16046,20 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8286211013793945</v>
+        <v>0.7966316223144532</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0327572959070155</v>
+        <v>0.0459132862317887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02060379981994629</v>
+        <v>0.01829433441162109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002479531648431968</v>
+        <v>0.003898463591891662</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -15758,19 +16121,20 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.984631681442261</v>
+        <v>4.39629340171814</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0379373811040867</v>
+        <v>0.1471297603289837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0852851390838623</v>
+        <v>0.08882756233215332</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005160537901372499</v>
+        <v>0.005533475621676442</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -15832,19 +16196,20 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.800524377822876</v>
+        <v>0.9475014686584473</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0306337068614269</v>
+        <v>0.08600822227162472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02020316123962402</v>
+        <v>0.02869458198547363</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001897992272885952</v>
+        <v>0.01010840428596402</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -15906,19 +16271,20 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.074095630645752</v>
+        <v>3.98499002456665</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09812555479566638</v>
+        <v>0.08487625114247969</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08570919036865235</v>
+        <v>0.09282956123352051</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005898977269512291</v>
+        <v>0.005541374255395341</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -15980,19 +16346,20 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.015046405792236</v>
+        <v>0.9839339256286621</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0126930543267458</v>
+        <v>0.0244690722306322</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0238011360168457</v>
+        <v>0.02553329467773437</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002926597796810442</v>
+        <v>0.004718606320390772</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -16054,19 +16421,20 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.972979784011841</v>
+        <v>5.259225702285766</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07598700655576471</v>
+        <v>0.2493552852116614</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1238205432891846</v>
+        <v>0.1372956275939941</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006970694739546549</v>
+        <v>0.01088282258396338</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -16128,19 +16496,20 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9504043102264405</v>
+        <v>0.9283596992492675</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04852535294626237</v>
+        <v>0.05726367664499566</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02595596313476562</v>
+        <v>0.02713441848754883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003856991420213514</v>
+        <v>0.003176377896607251</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -16202,19 +16571,20 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.866488218307495</v>
+        <v>5.318505620956421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03654621832694983</v>
+        <v>0.144381068755089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1032673835754395</v>
+        <v>0.1113209247589111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00648032465761785</v>
+        <v>0.01159837493379483</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -16276,19 +16646,20 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.947333812713623</v>
+        <v>0.9942771911621093</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09150931773739915</v>
+        <v>0.1226346826885178</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02291579246520996</v>
+        <v>0.02475829124450684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002631134156755365</v>
+        <v>0.004274443051672881</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -16350,19 +16721,20 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.529479455947876</v>
+        <v>4.434282636642456</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03062572585971939</v>
+        <v>0.1111717527176199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1030869483947754</v>
+        <v>0.107471752166748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01359191568020532</v>
+        <v>0.007227943461222981</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -16424,19 +16796,20 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9223978519439697</v>
+        <v>0.889583158493042</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03948656001203083</v>
+        <v>0.02768440207726041</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02412838935852051</v>
+        <v>0.02200922966003418</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00483925615350398</v>
+        <v>0.002194619316437206</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -16498,19 +16871,20 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.710122299194336</v>
+        <v>3.837140560150146</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1885093689995513</v>
+        <v>0.1450369661748352</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06985363960266114</v>
+        <v>0.07970633506774902</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005026365497133501</v>
+        <v>0.008746252114940338</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -16572,19 +16946,20 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.009586191177368164</v>
+        <v>0.01024937629699707</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0009548964489749049</v>
+        <v>0.001094017635433612</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001932096481323242</v>
+        <v>0.002656126022338867</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003654626127139972</v>
+        <v>0.000708774777982013</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -16592,7 +16967,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -16635,32 +17010,35 @@
       <c r="U26" t="n">
         <v>0.1</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01991677284240723</v>
+        <v>0.02441930770874023</v>
       </c>
       <c r="B27" t="n">
-        <v>0.001706798013869676</v>
+        <v>0.004116657664101887</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002207183837890625</v>
+        <v>0.001729536056518555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001206253429464198</v>
+        <v>0.0002770047318148811</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -16668,7 +17046,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -16711,32 +17089,35 @@
       <c r="U27" t="n">
         <v>0.1</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.009773445129394532</v>
+        <v>0.008094882965087891</v>
       </c>
       <c r="B28" t="n">
-        <v>0.001519885731513398</v>
+        <v>0.001442859780232234</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002471351623535156</v>
+        <v>0.00256495475769043</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000887399134859077</v>
+        <v>0.0008299404010968844</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -16744,7 +17125,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -16787,32 +17168,35 @@
       <c r="U28" t="n">
         <v>0.1</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0152979850769043</v>
+        <v>0.01859903335571289</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0006960444869292552</v>
+        <v>0.004730217899040877</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001560020446777344</v>
+        <v>0.003067684173583984</v>
       </c>
       <c r="D29" t="n">
-        <v>7.303822325394762e-05</v>
+        <v>0.001676547333333984</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -16820,7 +17204,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{'C': 0.1, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 0.1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -16863,32 +17247,35 @@
       <c r="U29" t="n">
         <v>0.1</v>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01786136627197266</v>
+        <v>0.01572346687316895</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004268016643047088</v>
+        <v>0.003397336248008782</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00284581184387207</v>
+        <v>0.002013874053955078</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001125345769529976</v>
+        <v>0.001062194702519505</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -16896,7 +17283,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -16939,32 +17326,35 @@
       <c r="U30" t="n">
         <v>1</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.02665843963623047</v>
+        <v>0.02639732360839844</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006191638249961199</v>
+        <v>0.002633148034450954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001947736740112305</v>
+        <v>0.002571725845336914</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0007536369665743568</v>
+        <v>0.001579280439488652</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -16972,7 +17362,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -17015,32 +17405,35 @@
       <c r="U31" t="n">
         <v>1</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.008549976348876952</v>
+        <v>0.01159572601318359</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002218542687053901</v>
+        <v>0.002312824287690259</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00210418701171875</v>
+        <v>0.003035831451416016</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001228730636254152</v>
+        <v>0.001179880427947102</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -17048,7 +17441,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -17091,32 +17484,35 @@
       <c r="U32" t="n">
         <v>1</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02271981239318848</v>
+        <v>0.02085127830505371</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007337181325124647</v>
+        <v>0.003664183484387672</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002956962585449219</v>
+        <v>0.001894712448120117</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001280721313491933</v>
+        <v>0.0007968137962568682</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -17124,7 +17520,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'C': 1, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 1, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -17167,32 +17563,35 @@
       <c r="U33" t="n">
         <v>1</v>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.07140722274780273</v>
+        <v>0.06520595550537109</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04155139617888961</v>
+        <v>0.03684323695181156</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001634788513183594</v>
+        <v>0.001816940307617188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002003679951819237</v>
+        <v>0.0002768374372715711</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -17200,7 +17599,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -17243,32 +17642,35 @@
       <c r="U34" t="n">
         <v>10</v>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="V34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.02572317123413086</v>
+        <v>0.02545595169067383</v>
       </c>
       <c r="B35" t="n">
-        <v>0.006965097106969603</v>
+        <v>0.004661820504592971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003258037567138672</v>
+        <v>0.002230453491210938</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001360162856095486</v>
+        <v>0.001129192006384918</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -17276,7 +17678,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l1', 'solver': 'saga'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l1', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -17319,32 +17721,35 @@
       <c r="U35" t="n">
         <v>10</v>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="V35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>l1</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.008976173400878907</v>
+        <v>0.00967855453491211</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003176869976602431</v>
+        <v>0.003524710099881042</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003483915328979492</v>
+        <v>0.002904796600341797</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001289302996065571</v>
+        <v>0.00152481354536447</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -17352,7 +17757,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'liblinear'}</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -17395,32 +17800,35 @@
       <c r="U36" t="n">
         <v>10</v>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="V36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>liblinear</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.02666354179382324</v>
+        <v>0.02781190872192383</v>
       </c>
       <c r="B37" t="n">
-        <v>0.005045386753616345</v>
+        <v>0.006879711068828828</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002012777328491211</v>
+        <v>0.002310276031494141</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005947176311748459</v>
+        <v>0.0008572320433466832</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -17428,7 +17836,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'C': 10, 'penalty': 'l2', 'solver': 'saga'}</t>
+          <t>{'C': 10, 'max_iter': 1000, 'penalty': 'l2', 'solver': 'saga'}</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -17471,32 +17879,35 @@
       <c r="U37" t="n">
         <v>10</v>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="V37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>l2</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>saga</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1596749305725098</v>
+        <v>0.08045725822448731</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03245188568799121</v>
+        <v>0.01873607094723147</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007150602340698242</v>
+        <v>0.008121156692504882</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006718454519950273</v>
+        <v>0.006686099591460106</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -17551,28 +17962,29 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1065067291259766</v>
+        <v>0.0967214584350586</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01472719243789043</v>
+        <v>0.0384449340894927</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007616424560546875</v>
+        <v>0.003344964981079101</v>
       </c>
       <c r="D39" t="n">
-        <v>0.006506277714422378</v>
+        <v>0.0004544960159879278</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
@@ -17627,28 +18039,29 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2733399868011475</v>
+        <v>0.3012056350708008</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01114431216736859</v>
+        <v>0.05175928907155055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009653186798095703</v>
+        <v>0.01040840148925781</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004987609906357617</v>
+        <v>0.002649223464144859</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -17703,28 +18116,29 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2761645317077637</v>
+        <v>0.246914005279541</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02206407773216604</v>
+        <v>0.03297754292854149</v>
       </c>
       <c r="C41" t="n">
-        <v>0.009914779663085937</v>
+        <v>0.008614397048950196</v>
       </c>
       <c r="D41" t="n">
-        <v>0.004782267080871627</v>
+        <v>0.001772967150996168</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -17779,28 +18193,29 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2242239952087402</v>
+        <v>0.2171864986419678</v>
       </c>
       <c r="B42" t="n">
-        <v>0.008351758467022581</v>
+        <v>0.01869461459806384</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009817695617675782</v>
+        <v>0.005708217620849609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002903639493800422</v>
+        <v>0.0001717073988152117</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -17855,28 +18270,29 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.210606050491333</v>
+        <v>0.2040109157562256</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01333656085307756</v>
+        <v>0.01576594498039064</v>
       </c>
       <c r="C43" t="n">
-        <v>0.009832572937011719</v>
+        <v>0.008721828460693359</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0030010062379176</v>
+        <v>0.002143798078252483</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -17931,28 +18347,29 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9910818576812744</v>
+        <v>0.857911205291748</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1261640395300609</v>
+        <v>0.1326883681209033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03210186958312988</v>
+        <v>0.0379666805267334</v>
       </c>
       <c r="D44" t="n">
-        <v>0.006617034623174447</v>
+        <v>0.007032193702425913</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -18007,28 +18424,29 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="n">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8810323238372803</v>
+        <v>0.7862532138824463</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1640413195007996</v>
+        <v>0.07159874842167556</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04164576530456543</v>
+        <v>0.02823429107666016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0305671244762668</v>
+        <v>0.005174486834868357</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -18083,28 +18501,29 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="n">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1578644275665283</v>
+        <v>0.06967654228210449</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07344430732076397</v>
+        <v>0.005836285792578911</v>
       </c>
       <c r="C46" t="n">
-        <v>0.007549953460693359</v>
+        <v>0.004416656494140625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003507717213638148</v>
+        <v>0.002283609360698341</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
@@ -18159,28 +18578,29 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="n">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1022489547729492</v>
+        <v>0.06956558227539063</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07175572485801816</v>
+        <v>0.009599046056994239</v>
       </c>
       <c r="C47" t="n">
-        <v>0.009837627410888672</v>
+        <v>0.002858924865722656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006220690268539116</v>
+        <v>0.000113027245437982</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -18235,28 +18655,29 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="n">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3217308044433594</v>
+        <v>0.2959771633148193</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01793359855026899</v>
+        <v>0.03945430570658036</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01298995018005371</v>
+        <v>0.01078381538391113</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00245239076547113</v>
+        <v>0.003068816432497913</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -18311,28 +18732,29 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="n">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2774050712585449</v>
+        <v>0.270603084564209</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01926396094243197</v>
+        <v>0.0249183851441535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.008581972122192383</v>
+        <v>0.00891118049621582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002835267024765242</v>
+        <v>0.002838061502239131</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
@@ -18387,28 +18809,29 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="n">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2091365814208984</v>
+        <v>0.1990867137908935</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01698913047659223</v>
+        <v>0.01038818802907706</v>
       </c>
       <c r="C50" t="n">
-        <v>0.007276535034179688</v>
+        <v>0.00734400749206543</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001267920879950039</v>
+        <v>0.001320110431726684</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -18463,28 +18886,29 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="n">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1904488563537598</v>
+        <v>0.1902763843536377</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01159337559466296</v>
+        <v>0.01105852799870315</v>
       </c>
       <c r="C51" t="n">
-        <v>0.008127641677856446</v>
+        <v>0.009233760833740234</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002437550726475543</v>
+        <v>0.001364792835146586</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -18539,28 +18963,29 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="n">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7722926139831543</v>
+        <v>0.7598161220550537</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1003307455066992</v>
+        <v>0.1059034263075647</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02663116455078125</v>
+        <v>0.03234291076660156</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003714154437245635</v>
+        <v>0.006602188490778957</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -18615,28 +19040,29 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="n">
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7389519691467286</v>
+        <v>0.7307544231414795</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1100937207479662</v>
+        <v>0.08093181317587422</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02825932502746582</v>
+        <v>0.03161959648132324</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003577275828268021</v>
+        <v>0.003947245741712485</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -18691,28 +19117,29 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="n">
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.08466362953186035</v>
+        <v>0.07079610824584961</v>
       </c>
       <c r="B54" t="n">
-        <v>0.007013533901262217</v>
+        <v>0.003939768428117164</v>
       </c>
       <c r="C54" t="n">
-        <v>0.003842973709106445</v>
+        <v>0.005120325088500977</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001106824717478393</v>
+        <v>0.001513984375070231</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
@@ -18767,28 +19194,29 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="n">
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.06491103172302246</v>
+        <v>0.0694922924041748</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009623877216363527</v>
+        <v>0.01185938673286655</v>
       </c>
       <c r="C55" t="n">
-        <v>0.003494119644165039</v>
+        <v>0.003286981582641602</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0007354657648336434</v>
+        <v>0.0004885985090681429</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
@@ -18843,28 +19271,29 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="n">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3037344932556152</v>
+        <v>0.3148111343383789</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01403502884472085</v>
+        <v>0.01055032401283371</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01049695014953613</v>
+        <v>0.009851026535034179</v>
       </c>
       <c r="D56" t="n">
-        <v>0.003482515685805063</v>
+        <v>0.003351478002248727</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -18919,28 +19348,29 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="n">
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.264858341217041</v>
+        <v>0.2588467597961426</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02363218896553788</v>
+        <v>0.01847042153552086</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0103846549987793</v>
+        <v>0.01057000160217285</v>
       </c>
       <c r="D57" t="n">
-        <v>0.002950164621544252</v>
+        <v>0.003358154631568822</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
@@ -18995,28 +19425,29 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="n">
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1810773849487305</v>
+        <v>0.176829195022583</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01032608844884177</v>
+        <v>0.01311890219239756</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009530830383300781</v>
+        <v>0.009867000579833984</v>
       </c>
       <c r="D58" t="n">
-        <v>0.003990671783609387</v>
+        <v>0.003720874194928804</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -19071,28 +19502,29 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="n">
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.182005500793457</v>
+        <v>0.1711918354034424</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01860629261737554</v>
+        <v>0.01500624485244908</v>
       </c>
       <c r="C59" t="n">
-        <v>0.008935737609863281</v>
+        <v>0.008138942718505859</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002523525825920464</v>
+        <v>0.002325398704349819</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -19147,28 +19579,29 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="n">
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6544034957885743</v>
+        <v>0.6598118305206299</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1376202303009426</v>
+        <v>0.1058432251079512</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03248186111450195</v>
+        <v>0.03493514060974121</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004367876017198161</v>
+        <v>0.006680129711047125</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -19223,28 +19656,29 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="n">
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.6468101024627686</v>
+        <v>0.5923230171203613</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08726335534698698</v>
+        <v>0.09960771162223966</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02908191680908203</v>
+        <v>0.03116631507873535</v>
       </c>
       <c r="D61" t="n">
-        <v>0.005991852896881459</v>
+        <v>0.003234419951869203</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -19299,28 +19733,29 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="n">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.07863173484802247</v>
+        <v>0.07754979133605958</v>
       </c>
       <c r="B62" t="n">
-        <v>0.004378561144265413</v>
+        <v>0.01044764215870864</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005765056610107422</v>
+        <v>0.004351425170898438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001881515564623034</v>
+        <v>0.001733826930653736</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -19375,28 +19810,29 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="n">
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="n">
         <v>1</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.07155818939208984</v>
+        <v>0.07354040145874023</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007009037672653405</v>
+        <v>0.008664961106718249</v>
       </c>
       <c r="C63" t="n">
-        <v>0.007534551620483399</v>
+        <v>0.004852056503295898</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002287540915757127</v>
+        <v>0.004052448074644785</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
@@ -19451,28 +19887,29 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="n">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="n">
         <v>1</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AA63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2927842617034912</v>
+        <v>0.3057024478912354</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01505661326237528</v>
+        <v>0.02031541082338564</v>
       </c>
       <c r="C64" t="n">
-        <v>0.009597206115722656</v>
+        <v>0.01109843254089355</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003415892925399738</v>
+        <v>0.002685412889898765</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -19527,28 +19964,29 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="n">
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Z64" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2707700252532959</v>
+        <v>0.3089942932128906</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008967793742871771</v>
+        <v>0.0457642358880401</v>
       </c>
       <c r="C65" t="n">
-        <v>0.007450246810913086</v>
+        <v>0.01890034675598145</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001154026269085972</v>
+        <v>0.01214966029387616</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
@@ -19603,28 +20041,29 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="n">
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Z65" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AA65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2556522369384766</v>
+        <v>0.238355016708374</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02215827200523555</v>
+        <v>0.008673113806811022</v>
       </c>
       <c r="C66" t="n">
-        <v>0.008560419082641602</v>
+        <v>0.008037805557250977</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003508511928031411</v>
+        <v>0.002294948395743225</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -19679,28 +20118,29 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="n">
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
         <v>1</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Z66" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AA66" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2385603904724121</v>
+        <v>0.2482119083404541</v>
       </c>
       <c r="B67" t="n">
-        <v>0.018405158895472</v>
+        <v>0.03274067826703153</v>
       </c>
       <c r="C67" t="n">
-        <v>0.006381845474243164</v>
+        <v>0.00903773307800293</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00154316224182428</v>
+        <v>0.002012318529845585</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -19755,28 +20195,29 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="n">
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Z67" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AA67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.0051842212677</v>
+        <v>0.9491092205047608</v>
       </c>
       <c r="B68" t="n">
-        <v>0.141535272680502</v>
+        <v>0.1121729828979088</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0692906379699707</v>
+        <v>0.03385601043701172</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06882260560667885</v>
+        <v>0.007891229552647115</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -19831,28 +20272,29 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="n">
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="n">
         <v>1</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AA68" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.296581983566284</v>
+        <v>0.8577339649200439</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5473357694443313</v>
+        <v>0.08042884981183403</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03043322563171387</v>
+        <v>0.02953629493713379</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00881723473522643</v>
+        <v>0.005518046768457844</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -19907,28 +20349,29 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="n">
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="n">
         <v>1</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AA69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1926760673522949</v>
+        <v>0.08196234703063965</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06035530593547021</v>
+        <v>0.007431258164385852</v>
       </c>
       <c r="C70" t="n">
-        <v>0.008270406723022461</v>
+        <v>0.004366350173950195</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002664421233937079</v>
+        <v>0.00185085507496958</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
@@ -19983,28 +20426,29 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="n">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="n">
         <v>1</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AA70" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.08693075180053711</v>
+        <v>0.07331643104553223</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01773454702060962</v>
+        <v>0.006147123442056012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01230978965759277</v>
+        <v>0.005914640426635742</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00723438939681055</v>
+        <v>0.002612880550426236</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -20059,28 +20503,29 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="n">
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="n">
         <v>1</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AA71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.193633079528809</v>
+        <v>0.3136682987213135</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0298047188352287</v>
+        <v>0.02251382579181725</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01634998321533203</v>
+        <v>0.008959770202636719</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006559574315628515</v>
+        <v>0.001793054469423071</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
@@ -20135,28 +20580,29 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="n">
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="n">
         <v>1</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="Z72" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AA72" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5360387802124024</v>
+        <v>0.291911792755127</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2950165771353861</v>
+        <v>0.01842026712071728</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01346802711486816</v>
+        <v>0.01112380027770996</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001003078708034777</v>
+        <v>0.003119091892693811</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -20211,28 +20657,29 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="n">
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="n">
         <v>1</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AA73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3039885997772217</v>
+        <v>0.2277616024017334</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02815409344228343</v>
+        <v>0.01678490867807901</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01187324523925781</v>
+        <v>0.008710241317749024</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002451574196970325</v>
+        <v>0.001497835448381642</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -20287,28 +20734,29 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="n">
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="n">
         <v>1</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Z74" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AA74" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3497355461120605</v>
+        <v>0.2215682983398438</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0632111448701044</v>
+        <v>0.02055523339366167</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01009550094604492</v>
+        <v>0.0113314151763916</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004246449308748936</v>
+        <v>0.003870222669031637</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -20363,28 +20811,29 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="n">
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="n">
         <v>1</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Z75" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AA75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.002476263046265</v>
+        <v>0.844300651550293</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1055941687976818</v>
+        <v>0.1286100559414534</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03388133049011231</v>
+        <v>0.03046989440917969</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003151223824963803</v>
+        <v>0.006661542913074958</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -20439,28 +20888,29 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="n">
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="n">
         <v>1</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Z76" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="AA76" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8549216747283935</v>
+        <v>0.8008463382720947</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06902296565149069</v>
+        <v>0.1147630656723207</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04003190994262695</v>
+        <v>0.02770919799804688</v>
       </c>
       <c r="D77" t="n">
-        <v>0.008974593715866392</v>
+        <v>0.005112921046715499</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -20515,28 +20965,29 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="n">
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="n">
         <v>1</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="Z77" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AA77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.07457900047302246</v>
+        <v>0.08149080276489258</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003866421996245484</v>
+        <v>0.01077316180211987</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004437541961669922</v>
+        <v>0.003579950332641601</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001994585372907975</v>
+        <v>0.0008183315406823254</v>
       </c>
       <c r="E78" t="n">
         <v>3</v>
@@ -20591,28 +21042,29 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="n">
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="n">
         <v>1</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Z78" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AA78" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.07859635353088379</v>
+        <v>0.07528533935546874</v>
       </c>
       <c r="B79" t="n">
-        <v>0.007991256172489943</v>
+        <v>0.001789450867648877</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005930662155151367</v>
+        <v>0.004857492446899414</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001444168362440375</v>
+        <v>0.001956289575644283</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
@@ -20667,28 +21119,29 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="n">
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="n">
         <v>1</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Z79" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="AA79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3515805244445801</v>
+        <v>0.3160931587219238</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06139095865231906</v>
+        <v>0.008675937987811843</v>
       </c>
       <c r="C80" t="n">
-        <v>0.009427881240844727</v>
+        <v>0.008231258392333985</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00153228742154891</v>
+        <v>0.002051248993335344</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -20743,28 +21196,29 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="n">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="n">
         <v>1</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Z80" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AA80" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3464778423309326</v>
+        <v>0.2922173976898194</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02206913406639446</v>
+        <v>0.0221335659442516</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01890912055969238</v>
+        <v>0.01483831405639648</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01483564241884076</v>
+        <v>0.002312035749619197</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
@@ -20819,28 +21273,29 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="n">
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="n">
         <v>1</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Z81" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="AA81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5081614017486572</v>
+        <v>0.2046427249908447</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2101253295397887</v>
+        <v>0.01755346480884954</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01066441535949707</v>
+        <v>0.007884073257446288</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003404305659517067</v>
+        <v>0.002930745133990059</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -20895,28 +21350,29 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="n">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="n">
         <v>1</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Z82" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="AA82" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6247200965881348</v>
+        <v>0.2008552074432373</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06631993556692353</v>
+        <v>0.02128993930922474</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01199526786804199</v>
+        <v>0.008023786544799804</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001728415415364138</v>
+        <v>0.002994733668076077</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -20971,28 +21427,29 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="n">
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="n">
         <v>1</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="Z83" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z83" t="n">
+      <c r="AA83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.223483467102051</v>
+        <v>0.6991937160491943</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1967239019009769</v>
+        <v>0.1186849011407629</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05020079612731933</v>
+        <v>0.03101639747619629</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02354188610589121</v>
+        <v>0.006035554210576082</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -21047,28 +21504,29 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="n">
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="n">
         <v>1</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="Z84" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AA84" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9819427013397217</v>
+        <v>0.6275546073913574</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1734476937191302</v>
+        <v>0.08920978371049593</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03308367729187012</v>
+        <v>0.02315430641174316</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01494666391567111</v>
+        <v>0.003556362317503375</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -21123,13 +21581,14 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="n">
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="n">
         <v>1</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="Z85" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AA85" t="n">
         <v>1</v>
       </c>
     </row>
